--- a/excel/giftBagAwardDataTable_org.zgl.logic.hall.giftBag.data.GiftBagAwardDataTable.xlsx
+++ b/excel/giftBagAwardDataTable_org.zgl.logic.hall.giftBag.data.GiftBagAwardDataTable.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GameGroup\work\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BABE3D24-0C4D-4EF3-87E6-5A29F0B04597}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>成长礼包配表</t>
   </si>
@@ -64,29 +58,39 @@
     <t>高级场</t>
   </si>
   <si>
-    <t>1,1,5000;3,20,2</t>
-  </si>
-  <si>
-    <t>1,1,20000;4,22,1</t>
-  </si>
-  <si>
-    <t>1,1,30000;3,17,2</t>
-  </si>
-  <si>
-    <t>1,1,30000;3,18,2</t>
-  </si>
-  <si>
-    <t>1,1,35000;3,18,2</t>
-  </si>
-  <si>
-    <t>1,1,50000;3,18,6;100,37,1</t>
+    <t>1,1,5000;3,22,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,50000;3,23,6;3,18,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,35000;3,24,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,30000;3,22,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,30000;3,24,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,35000;3,24,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,20000;3,22,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,14 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="61.125" customWidth="1"/>
@@ -429,7 +433,7 @@
     <col min="6" max="6" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -457,7 +461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -477,7 +481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -497,12 +501,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -517,12 +521,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -537,12 +541,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -557,12 +561,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -577,12 +581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -597,12 +601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0</v>
